--- a/branches/master/StructureDefinition-PTPatient.xlsx
+++ b/branches/master/StructureDefinition-PTPatient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T19:41:20+00:00</t>
+    <t>2023-03-07T19:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PTPatient.xlsx
+++ b/branches/master/StructureDefinition-PTPatient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T19:43:52+00:00</t>
+    <t>2023-03-07T19:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
